--- a/mednickdb_pyparse/stagemaps/DinklemannLab_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/DinklemannLab_stagemap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,35 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>mapsfrom</t>
   </si>
   <si>
-    <t>meaning</t>
-  </si>
-  <si>
     <t>mapsto</t>
   </si>
   <si>
     <t>wake</t>
   </si>
   <si>
-    <t>REM</t>
-  </si>
-  <si>
-    <t>stage 1</t>
-  </si>
-  <si>
-    <t>stage 2</t>
-  </si>
-  <si>
-    <t>stage 3</t>
-  </si>
-  <si>
-    <t>stage 4</t>
-  </si>
-  <si>
     <t>movement</t>
   </si>
   <si>
@@ -70,6 +52,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>sws</t>
+  </si>
+  <si>
+    <t>rem</t>
   </si>
 </sst>
 </file>
@@ -388,100 +382,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
